--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Chatham Albatross_Chatham Island.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Chatham Albatross_Chatham Island.xlsx
@@ -4232,13 +4232,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D128CEA-221C-4E77-9BBF-1B60FED78D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89259FC7-2AB8-472B-972F-EF78F1CBF82D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D687294-5130-4EC4-B7E1-8BCB855B5F6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{080E3812-68E8-4839-A295-058E38BE655B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EF05B8-55E7-4C37-982C-0D138A8B4E31}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28FDCEF0-98CC-4373-98B2-D8616E8FD3C3}"/>
 </file>